--- a/Final Internship Report/Input_Finance 19-20-21.xlsx
+++ b/Final Internship Report/Input_Finance 19-20-21.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git_Clone_Files\Asset-Management-ERP-MBA\Final Internship Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A26B504-0BF3-47D9-994D-96F5C689B5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Assumptions" sheetId="3" state="hidden" r:id="rId1"/>
@@ -572,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -2276,7 +2275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I192"/>
   <sheetViews>
@@ -5791,12 +5790,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="I203" sqref="I203"/>
@@ -10595,8 +10594,8 @@
       <formula>K$6="Projections"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.36" right="0.17" top="0.41" bottom="0.31" header="0.38" footer="0.38"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="7" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="7" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="44" max="10" man="1"/>
     <brk id="87" max="10" man="1"/>
@@ -10606,7 +10605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10713,7 +10712,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Historical!$E$3:$R$3</xm:f>
           </x14:formula1>
